--- a/Documents/UseR Group UL Questionaire empty.xlsx
+++ b/Documents/UseR Group UL Questionaire empty.xlsx
@@ -5,26 +5,21 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\R-UserGroupUL\R-UGUL_documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\UseRGroupUL\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12720" windowHeight="5652" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23004" windowHeight="7728" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Last name</t>
   </si>
@@ -56,9 +51,6 @@
     <t>How many R meetings did you attend so far?</t>
   </si>
   <si>
-    <t>Which days of the week are you able to attend an R meeting?</t>
-  </si>
-  <si>
     <t>Faculty</t>
   </si>
   <si>
@@ -75,13 +67,143 @@
   </si>
   <si>
     <t>GitHub ID (for access to group's repository)</t>
+  </si>
+  <si>
+    <t>Institute</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <r>
+      <t>Which days of the week are you able to attend an R meeting? (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ay / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ornings / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">fternoons / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>venings)</t>
+    </r>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>D / E</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>M / E</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -97,6 +219,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -106,7 +237,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -129,11 +260,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -146,6 +303,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,113 +661,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.19921875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.69921875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="19.8984375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="26.296875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.8984375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="27" style="4" customWidth="1"/>
-    <col min="10" max="10" width="16.59765625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="22.8984375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="21.5" style="4" customWidth="1"/>
-    <col min="13" max="13" width="16.3984375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="16" style="4" customWidth="1"/>
-    <col min="15" max="15" width="11" style="4"/>
-    <col min="16" max="16" width="16.3984375" style="4" customWidth="1"/>
-    <col min="17" max="17" width="16.09765625" style="4" customWidth="1"/>
-    <col min="18" max="16384" width="11" style="4"/>
+    <col min="3" max="3" width="26.296875" style="4" customWidth="1"/>
+    <col min="4" max="5" width="16.796875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="19.296875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.69921875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.796875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.796875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="36.8984375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="36.69921875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="22.796875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="33.3984375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="20.8984375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="22.69921875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="22" style="4" customWidth="1"/>
+    <col min="17" max="17" width="16.296875" style="8" customWidth="1"/>
+    <col min="18" max="22" width="10" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="R1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+    <row r="2" spans="1:22" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>